--- a/DotnetAngular/wwwroot/Plots.xlsx
+++ b/DotnetAngular/wwwroot/Plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POC\DotnetAngular\DotnetAngular\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A60216A-325A-4100-B6F5-7A41D21D5625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37245D4-157C-4FC0-B90F-9833369FE753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>AddressLine1</t>
   </si>
@@ -42,13 +42,16 @@
     <t>Hyd</t>
   </si>
   <si>
-    <t>7-2-1/2/3, colony</t>
-  </si>
-  <si>
     <t>Telangana</t>
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>7-2-1/2/2, colony</t>
+  </si>
+  <si>
+    <t>7-2-1/2/1, colony</t>
   </si>
 </sst>
 </file>
@@ -367,9 +370,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -392,16 +397,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
